--- a/biology/Médecine/Ana_Jorge/Ana_Jorge.xlsx
+++ b/biology/Médecine/Ana_Jorge/Ana_Jorge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Ana Maria Teodoro Jorge, née en 1950, est une femme politique portugaise membre du Parti socialiste ayant occupé le poste de ministre de la Santé.
@@ -512,7 +524,9 @@
           <t>Parcours personnel</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est titulaire, depuis 1983, d'une licence de médecine, obtenue à l'Université classique de Lisbonne, qu'elle a complété par une spécialisation en pédiatrie l'année suivante.
 Responsable de l'équipe de santé scolaire du centre de santé Caneças entre 1977 et 1983, elle devient infirmière en pédiatrie à l'hôpital Dona Estfânia pendant sept ans à partir de 1984. En octobre 1991, elle exerce également à l'hôpital Garcia de Orta.
@@ -549,9 +563,11 @@
           <t>Parcours politique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 31 janvier 2008, Ana Jorge est nommée ministre de la Santé dans le premier gouvernement du socialiste José Sócrates. Cette nomination surprend car, en plus d'être indépendante, elle a soutenu le socialiste Manuel Alegre lors de l'élection présidentielle de 2006 contre Mario Soares, candidat officiel du PS[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 31 janvier 2008, Ana Jorge est nommée ministre de la Santé dans le premier gouvernement du socialiste José Sócrates. Cette nomination surprend car, en plus d'être indépendante, elle a soutenu le socialiste Manuel Alegre lors de l'élection présidentielle de 2006 contre Mario Soares, candidat officiel du PS.
 Elle est désignée tête de liste du Parti socialiste (PS) dans le district de Coimbra à l'occasion des élections législatives du 27 septembre 2009, et est élue députée à l'Assemblée de la République. Le 26 octobre suivant, elle est confirmée à son poste dans le  second cabinet Sócrates.
 Elle est remplacée le 21 juin 2011 par Paulo Macedo.
 </t>
